--- a/Other/init_req_survey.xlsx
+++ b/Other/init_req_survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imk_new\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B158B51E-74C0-4CCD-A8E1-5A2ABFB98204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340967BC-2468-4924-96F7-7E910A6ADD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{7DF22AFB-A1D4-431B-8328-58F9833EB3DE}"/>
   </bookViews>
   <sheets>
     <sheet name="initial requirement" sheetId="1" r:id="rId1"/>
@@ -493,6 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,10 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2826,7 +2824,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2840,7 +2838,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +2850,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2864,7 +2862,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2874,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2890,7 +2888,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2900,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
@@ -3095,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69D107D-D953-4D3C-AB75-B0833F936A37}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,26 +3108,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
@@ -3175,40 +3173,40 @@
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="27">
-        <v>5</v>
-      </c>
-      <c r="C3" s="27">
-        <v>5</v>
-      </c>
-      <c r="D3" s="27">
-        <v>4</v>
-      </c>
-      <c r="E3" s="27">
-        <v>5</v>
-      </c>
-      <c r="F3" s="27">
-        <v>7</v>
-      </c>
-      <c r="G3" s="27">
-        <v>4</v>
-      </c>
-      <c r="H3" s="27">
-        <v>6</v>
-      </c>
-      <c r="I3" s="27">
+      <c r="B3" s="46">
+        <v>5</v>
+      </c>
+      <c r="C3" s="46">
+        <v>5</v>
+      </c>
+      <c r="D3" s="46">
+        <v>4</v>
+      </c>
+      <c r="E3" s="46">
+        <v>5</v>
+      </c>
+      <c r="F3" s="46">
+        <v>7</v>
+      </c>
+      <c r="G3" s="46">
+        <v>4</v>
+      </c>
+      <c r="H3" s="46">
+        <v>6</v>
+      </c>
+      <c r="I3" s="46">
         <v>2</v>
       </c>
-      <c r="J3" s="27">
-        <v>4</v>
-      </c>
-      <c r="K3" s="27">
-        <v>4</v>
-      </c>
-      <c r="L3" s="27">
-        <v>4</v>
-      </c>
-      <c r="M3" s="27">
+      <c r="J3" s="46">
+        <v>4</v>
+      </c>
+      <c r="K3" s="46">
+        <v>4</v>
+      </c>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="46">
         <v>4</v>
       </c>
       <c r="N3" s="27"/>
@@ -3228,40 +3226,40 @@
       <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="27">
-        <v>7</v>
-      </c>
-      <c r="C4" s="27">
-        <v>7</v>
-      </c>
-      <c r="D4" s="27">
-        <v>7</v>
-      </c>
-      <c r="E4" s="27">
-        <v>6</v>
-      </c>
-      <c r="F4" s="27">
-        <v>7</v>
-      </c>
-      <c r="G4" s="27">
-        <v>4</v>
-      </c>
-      <c r="H4" s="27">
-        <v>6</v>
-      </c>
-      <c r="I4" s="27">
-        <v>6</v>
-      </c>
-      <c r="J4" s="27">
-        <v>6</v>
-      </c>
-      <c r="K4" s="27">
-        <v>6</v>
-      </c>
-      <c r="L4" s="27">
-        <v>7</v>
-      </c>
-      <c r="M4" s="27">
+      <c r="B4" s="46">
+        <v>7</v>
+      </c>
+      <c r="C4" s="46">
+        <v>7</v>
+      </c>
+      <c r="D4" s="46">
+        <v>7</v>
+      </c>
+      <c r="E4" s="46">
+        <v>6</v>
+      </c>
+      <c r="F4" s="46">
+        <v>7</v>
+      </c>
+      <c r="G4" s="46">
+        <v>4</v>
+      </c>
+      <c r="H4" s="46">
+        <v>6</v>
+      </c>
+      <c r="I4" s="46">
+        <v>6</v>
+      </c>
+      <c r="J4" s="46">
+        <v>6</v>
+      </c>
+      <c r="K4" s="46">
+        <v>6</v>
+      </c>
+      <c r="L4" s="46">
+        <v>7</v>
+      </c>
+      <c r="M4" s="46">
         <v>7</v>
       </c>
       <c r="N4" s="27"/>
@@ -3281,40 +3279,40 @@
       <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="27">
-        <v>5</v>
-      </c>
-      <c r="C5" s="27">
-        <v>5</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="B5" s="46">
+        <v>5</v>
+      </c>
+      <c r="C5" s="46">
+        <v>5</v>
+      </c>
+      <c r="D5" s="46">
         <v>2</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="46">
         <v>2</v>
       </c>
-      <c r="F5" s="27">
-        <v>7</v>
-      </c>
-      <c r="G5" s="27">
-        <v>7</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="F5" s="46">
+        <v>7</v>
+      </c>
+      <c r="G5" s="46">
+        <v>7</v>
+      </c>
+      <c r="H5" s="46">
         <v>2</v>
       </c>
-      <c r="I5" s="27">
-        <v>6</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="I5" s="46">
+        <v>6</v>
+      </c>
+      <c r="J5" s="46">
         <v>2</v>
       </c>
-      <c r="K5" s="27">
-        <v>6</v>
-      </c>
-      <c r="L5" s="27">
-        <v>5</v>
-      </c>
-      <c r="M5" s="27">
+      <c r="K5" s="46">
+        <v>6</v>
+      </c>
+      <c r="L5" s="46">
+        <v>5</v>
+      </c>
+      <c r="M5" s="46">
         <v>6</v>
       </c>
       <c r="N5" s="27"/>
@@ -3413,41 +3411,41 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="43" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="24" t="s">
         <v>46</v>
       </c>
@@ -3484,26 +3482,26 @@
       <c r="M10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="35"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="46">
-        <v>5</v>
-      </c>
-      <c r="C11" s="46">
-        <v>5</v>
-      </c>
-      <c r="D11" s="46">
-        <v>4</v>
-      </c>
-      <c r="E11" s="46">
+      <c r="B11" s="34">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>4</v>
+      </c>
+      <c r="E11" s="34">
         <v>5</v>
       </c>
       <c r="F11" s="16">
@@ -3557,16 +3555,16 @@
       <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="46">
-        <v>7</v>
-      </c>
-      <c r="C12" s="46">
-        <v>7</v>
-      </c>
-      <c r="D12" s="46">
-        <v>7</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="B12" s="34">
+        <v>7</v>
+      </c>
+      <c r="C12" s="34">
+        <v>7</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="34">
         <v>6</v>
       </c>
       <c r="F12" s="16">
@@ -3620,16 +3618,16 @@
       <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="46">
-        <v>5</v>
-      </c>
-      <c r="C13" s="46">
-        <v>5</v>
-      </c>
-      <c r="D13" s="46">
+      <c r="B13" s="34">
+        <v>5</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
         <v>2</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="34">
         <v>2</v>
       </c>
       <c r="F13" s="16">
@@ -3806,21 +3804,21 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="2">
         <f t="shared" ref="N16:Q16" si="6">AVERAGE(N11:N15)</f>
         <v>5.55</v>
@@ -3918,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97FC999-A0C2-4BE5-B9CF-FAD8311FDFDC}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="X24" sqref="N18:X24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,26 +3931,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
@@ -4236,36 +4234,36 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="43" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="36" t="s">
         <v>74</v>
       </c>
       <c r="T9" t="s">
@@ -4285,7 +4283,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="24" t="s">
         <v>46</v>
       </c>
@@ -4322,11 +4320,11 @@
       <c r="M10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="35"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
@@ -4719,21 +4717,21 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="2">
         <f t="shared" ref="N16:Q16" si="6">AVERAGE(N11:N15)</f>
         <v>3.9</v>
@@ -4779,20 +4777,20 @@
         <v>4</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36" t="s">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -5002,7 +5000,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="7" t="s">
         <v>75</v>
       </c>
       <c r="O24" s="2">
@@ -5123,11 +5121,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="N9:N10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
@@ -5135,6 +5128,11 @@
     <mergeCell ref="T18:X18"/>
     <mergeCell ref="O18:S18"/>
     <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
